--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/32_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/32_11R22.xlsx
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1010988340531174</v>
+        <v>0.1007935942538728</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0668636523347244</v>
+        <v>0.06754654555748671</v>
       </c>
       <c r="H2">
-        <v>0.06564243869397875</v>
+        <v>0.06636057991207149</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01174687881814288</v>
+        <v>0.01402061225978301</v>
       </c>
       <c r="M2">
-        <v>0.1387155700046751</v>
+        <v>0.1373245950900279</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000122455941006923</v>
       </c>
       <c r="O2">
-        <v>0.1480593999244309</v>
+        <v>0.1463987332356411</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1296475057981424</v>
+        <v>0.1285182632079169</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.2531094073799869</v>
+        <v>0.2484166732062701</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.03208782705695191</v>
+        <v>0.03377445794371055</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.03858595623164139</v>
+        <v>0.04008503105190696</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01444252970420799</v>
+        <v>0.01663845834030528</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09440458670469844</v>
+        <v>0.09427689057014813</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.08928568358160086</v>
+        <v>0.08919537919124898</v>
       </c>
       <c r="G3">
-        <v>0.1231695316628098</v>
+        <v>0.1228317179624664</v>
       </c>
       <c r="H3">
-        <v>0.001016097278780906</v>
+        <v>0.001570570433963139</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06167035325117064</v>
+        <v>0.06178176890568773</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1854554872073387</v>
+        <v>0.1846626970284665</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.09609757495256303</v>
+        <v>0.09595751214844057</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2004404370403535</v>
+        <v>0.1995381871984425</v>
       </c>
       <c r="T3">
-        <v>0.00400448844158176</v>
+        <v>0.004537132475321911</v>
       </c>
       <c r="U3">
-        <v>0.04156828683272107</v>
+        <v>0.04182654084446105</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003799006799241321</v>
+        <v>0.004333151802392908</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06398104488107292</v>
+        <v>0.06407558176522278</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03510742136606692</v>
+        <v>0.03541286967373715</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -936,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1955346710943545</v>
+        <v>0.3587946501546363</v>
       </c>
       <c r="F4">
-        <v>0.02503871942250605</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.10073926783001</v>
+        <v>0.1215791707949571</v>
       </c>
       <c r="H4">
-        <v>0.07008884925579976</v>
+        <v>0.04487973723296221</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -960,31 +960,31 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0731494926343001</v>
+        <v>0.05253867386046286</v>
       </c>
       <c r="N4">
-        <v>0.09681703560635958</v>
+        <v>0.111764199129098</v>
       </c>
       <c r="O4">
-        <v>0.06343881840481565</v>
+        <v>0.02823873775671234</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.03530148627196269</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.07022628979129746</v>
+        <v>0.04522366764929916</v>
       </c>
       <c r="S4">
-        <v>0.05215413099508406</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1468558975630559</v>
+        <v>0.2369811634218719</v>
       </c>
       <c r="U4">
-        <v>0.003397272532168043</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.004297036873502315</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1005,16 +1005,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006172193742441649</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.03648801970699914</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.006998002194418473</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01330281608092464</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1052,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1610451991759126</v>
+        <v>0.1585618014643234</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.05234145078162396</v>
+        <v>0.05286799975055986</v>
       </c>
       <c r="H5">
-        <v>0.07908271028594668</v>
+        <v>0.07886880856696196</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1073,37 +1073,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.00122233208426858</v>
+        <v>0.003164341181372079</v>
       </c>
       <c r="M5">
-        <v>0.1098990033659103</v>
+        <v>0.1088318155327643</v>
       </c>
       <c r="N5">
-        <v>0.01724826651449359</v>
+        <v>0.01874652634946857</v>
       </c>
       <c r="O5">
-        <v>0.1493301293472525</v>
+        <v>0.1471711154408564</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000669938631862853</v>
       </c>
       <c r="R5">
-        <v>0.108745349979214</v>
+        <v>0.1077101061703823</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.2091045593938385</v>
+        <v>0.2052904245743492</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01129712323415433</v>
+        <v>0.01296016693561581</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.008203695880124847</v>
+        <v>0.009952394874372864</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.00133339601873963</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.07516797592595637</v>
+        <v>0.07506247103657547</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01731220403130365</v>
+        <v>0.01880869347179521</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01215440627324932</v>
+        <v>0.01697052376227159</v>
       </c>
       <c r="F6">
-        <v>0.04588114994516361</v>
+        <v>0.04720111652210687</v>
       </c>
       <c r="G6">
-        <v>0.06080645156699901</v>
+        <v>0.06057924515310035</v>
       </c>
       <c r="H6">
-        <v>0.1305609256222446</v>
+        <v>0.1231028946003681</v>
       </c>
       <c r="I6">
-        <v>0.03482846621177704</v>
+        <v>0.03729416599947135</v>
       </c>
       <c r="J6">
-        <v>0.01266075950643073</v>
+        <v>0.01742438786886426</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1192,34 +1192,34 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.002374518522432611</v>
+        <v>0.0082044298070451</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2237667863129311</v>
+        <v>0.2066469344513448</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.0003681273113849248</v>
       </c>
       <c r="R6">
-        <v>0.1278754036446064</v>
+        <v>0.1206957567502597</v>
       </c>
       <c r="S6">
-        <v>0.008048243318566534</v>
+        <v>0.01329001012312335</v>
       </c>
       <c r="T6">
-        <v>0.1348666170706091</v>
+        <v>0.1269622533926432</v>
       </c>
       <c r="U6">
-        <v>0.03415564303509747</v>
+        <v>0.03669108840468664</v>
       </c>
       <c r="V6">
-        <v>0.02949805686565234</v>
+        <v>0.03251631268064932</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01178650308876554</v>
+        <v>0.01664075782182483</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1240,13 +1240,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.08223347141206504</v>
+        <v>0.07978511682853605</v>
       </c>
       <c r="AD6">
-        <v>0.02004150957250685</v>
+        <v>0.02404004135976085</v>
       </c>
       <c r="AE6">
-        <v>0.02846108803090245</v>
+        <v>0.03158683716255863</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1284,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1696057956428076</v>
+        <v>0.1623978217069856</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1008643285600982</v>
+        <v>0.09867069597357261</v>
       </c>
       <c r="H7">
-        <v>0.07621250064803448</v>
+        <v>0.07581709386728734</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001983284553287901</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1308,34 +1308,34 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.07933315278290164</v>
+        <v>0.07871011025766557</v>
       </c>
       <c r="N7">
-        <v>0.01401127122105918</v>
+        <v>0.01815312862638884</v>
       </c>
       <c r="O7">
-        <v>0.1391358103550387</v>
+        <v>0.1341504672943634</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.006085109395790713</v>
+        <v>0.01080514010274395</v>
       </c>
       <c r="R7">
-        <v>0.1577616182825185</v>
+        <v>0.1514176170084181</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.002252866959129989</v>
       </c>
       <c r="T7">
-        <v>0.1788798589297189</v>
+        <v>0.1709953891175491</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.005238237462148498</v>
+        <v>0.01002004318110884</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1350,28 +1350,28 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.0003725348396009464</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.06565621752035454</v>
+        <v>0.06603083804959073</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.007216099199528989</v>
+        <v>0.01185362993697046</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.001509994768391374</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.00485934375694537</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1836968285913363</v>
+        <v>0.1645843699394739</v>
       </c>
       <c r="E8">
-        <v>0.037904250783357</v>
+        <v>0.04113413361504821</v>
       </c>
       <c r="F8">
-        <v>0.1134044716674662</v>
+        <v>0.1050641378088522</v>
       </c>
       <c r="G8">
-        <v>0.06538553657174485</v>
+        <v>0.06440398230065039</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1418,70 +1418,70 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0008398819178138677</v>
       </c>
       <c r="L8">
-        <v>0.009577630970300904</v>
+        <v>0.01714849619254737</v>
       </c>
       <c r="M8">
-        <v>0.1488721541446479</v>
+        <v>0.1350964882173525</v>
       </c>
       <c r="N8">
-        <v>0.06378309621808376</v>
+        <v>0.06304711185271986</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.08824543647009704</v>
+        <v>0.08376066072169576</v>
       </c>
       <c r="Q8">
-        <v>0.0555924022829143</v>
+        <v>0.05611162091648395</v>
       </c>
       <c r="R8">
-        <v>0.05433043660933958</v>
+        <v>0.0550430482704793</v>
       </c>
       <c r="S8">
-        <v>0.06160369755414237</v>
+        <v>0.06120170048710797</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.002804733120516385</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.001209638626752062</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.002536342459638115</v>
       </c>
       <c r="X8">
-        <v>0.01078655718818654</v>
+        <v>0.01817215754445336</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.002587811917958048</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.001134295720379587</v>
       </c>
       <c r="AA8">
-        <v>0.06234203423049169</v>
+        <v>0.06182688894699215</v>
       </c>
       <c r="AB8">
-        <v>0.03529695379243873</v>
+        <v>0.03892639825199869</v>
       </c>
       <c r="AC8">
-        <v>0.009178512925452669</v>
+        <v>0.01681054197225262</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.00203319622624318</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.00274353136153805</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.001778831611052614</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1516,55 +1516,55 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09263409045925813</v>
+        <v>0.08878030572103368</v>
       </c>
       <c r="F9">
-        <v>0.04471416949266716</v>
+        <v>0.04694776252966664</v>
       </c>
       <c r="G9">
-        <v>0.08130037984339769</v>
+        <v>0.07888634243200854</v>
       </c>
       <c r="H9">
-        <v>0.138819618370204</v>
+        <v>0.1290987797956828</v>
       </c>
       <c r="I9">
-        <v>0.02975864617659863</v>
+        <v>0.03389207373783597</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.001643906823843169</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.001611659173126632</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1900692402935978</v>
+        <v>0.1738380443730659</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.005630187957071402</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.001280194782544271</v>
       </c>
       <c r="R9">
-        <v>0.09136038381320671</v>
+        <v>0.0876684009597294</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.1005862207857514</v>
+        <v>0.09572225864241543</v>
       </c>
       <c r="U9">
-        <v>0.03043292027494809</v>
+        <v>0.03448069324665547</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.02232328244739581</v>
+        <v>0.02740124136433824</v>
       </c>
       <c r="Z9">
-        <v>0.002782963036357664</v>
+        <v>0.01034317367041917</v>
       </c>
       <c r="AA9">
-        <v>0.002545831642729405</v>
+        <v>0.01013616562312086</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.0006631181464965582</v>
       </c>
       <c r="AC9">
-        <v>0.1236287415311852</v>
+        <v>0.1158376349802305</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.04904351183270229</v>
+        <v>0.0507271385548483</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.005410917485867097</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1632,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.005952270627776003</v>
+        <v>0.01432742142920779</v>
       </c>
       <c r="F10">
-        <v>0.1797837888459845</v>
+        <v>0.1583223980981438</v>
       </c>
       <c r="G10">
-        <v>0.04025758835224602</v>
+        <v>0.04274455473155079</v>
       </c>
       <c r="H10">
-        <v>0.1085103743152095</v>
+        <v>0.09928239334140387</v>
       </c>
       <c r="I10">
-        <v>0.04460688564077229</v>
+        <v>0.04634733613740292</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1656,31 +1656,31 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0006261183966607516</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.008847486465771914</v>
       </c>
       <c r="O10">
-        <v>0.1546251838729308</v>
+        <v>0.1374820305212451</v>
       </c>
       <c r="P10">
-        <v>0.051110757535581</v>
+        <v>0.05173487972759996</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.06635519585466368</v>
+        <v>0.06436275390477786</v>
       </c>
       <c r="S10">
-        <v>0.02428057604127828</v>
+        <v>0.02950984598288084</v>
       </c>
       <c r="T10">
-        <v>0.08420199598213647</v>
+        <v>0.07914631901605249</v>
       </c>
       <c r="U10">
-        <v>0.08826355283881959</v>
+        <v>0.0825107479229179</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1692,37 +1692,37 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.001743626504840986</v>
+        <v>0.01084115139888366</v>
       </c>
       <c r="Z10">
-        <v>0.01667151702341386</v>
+        <v>0.02320681022169875</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.003424421432948631</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.09039009980141965</v>
+        <v>0.08427229314442722</v>
       </c>
       <c r="AD10">
-        <v>0.02716921743844965</v>
+        <v>0.03190267931284393</v>
       </c>
       <c r="AE10">
-        <v>0.01607736932447759</v>
+        <v>0.0227146423747906</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.001580121229689361</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.006120997452949957</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.0006925977561520478</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1754,100 +1754,100 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1238156401614066</v>
+        <v>0.1118381949897782</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0076261593934649</v>
       </c>
       <c r="I11">
-        <v>0.0710529001682554</v>
+        <v>0.06844091338130857</v>
       </c>
       <c r="J11">
-        <v>0.1061379816307709</v>
+        <v>0.09729834498327845</v>
       </c>
       <c r="K11">
-        <v>0.01535691282753153</v>
+        <v>0.0226310398341635</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0003543780180779274</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.002635590411282578</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.004713282028849543</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.001851044972379418</v>
       </c>
       <c r="P11">
-        <v>0.01668104701167872</v>
+        <v>0.02372013839281106</v>
       </c>
       <c r="Q11">
-        <v>0.1756846908939448</v>
+        <v>0.1545004184015294</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.0001705092445473494</v>
       </c>
       <c r="S11">
-        <v>0.03325461352163177</v>
+        <v>0.03735187421969371</v>
       </c>
       <c r="T11">
-        <v>0.1444551786763082</v>
+        <v>0.128814187239542</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.000664607147718827</v>
       </c>
       <c r="V11">
-        <v>0.06285402552035023</v>
+        <v>0.06169735017716362</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.002499284348789549</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>8.037481296410074E-05</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.0007576708451504809</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.0002208494565998344</v>
       </c>
       <c r="AA11">
-        <v>0.01984500918292502</v>
+        <v>0.02632249295896785</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.009439924675689057</v>
       </c>
       <c r="AC11">
-        <v>0.005174059703617449</v>
+        <v>0.01425565704218673</v>
       </c>
       <c r="AD11">
-        <v>0.003738570030696512</v>
+        <v>0.01307496874605415</v>
       </c>
       <c r="AE11">
-        <v>0.1663527203431249</v>
+        <v>0.1468248853642299</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.000157686980242474</v>
       </c>
       <c r="AG11">
-        <v>0.05559665032775783</v>
+        <v>0.05572816898960331</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.0001429535731673602</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.000470337142691941</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.004214359996642538</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.0009017901039446436</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.0006005621274871763</v>
       </c>
     </row>
   </sheetData>
@@ -1993,106 +1993,106 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1010988340531174</v>
+        <v>0.1007935942538728</v>
       </c>
       <c r="F2">
-        <v>0.1010988340531174</v>
+        <v>0.1007935942538728</v>
       </c>
       <c r="G2">
-        <v>0.1679624863878418</v>
+        <v>0.1683401398113595</v>
       </c>
       <c r="H2">
-        <v>0.2336049250818206</v>
+        <v>0.234700719723431</v>
       </c>
       <c r="I2">
-        <v>0.2336049250818206</v>
+        <v>0.234700719723431</v>
       </c>
       <c r="J2">
-        <v>0.2336049250818206</v>
+        <v>0.234700719723431</v>
       </c>
       <c r="K2">
-        <v>0.2336049250818206</v>
+        <v>0.234700719723431</v>
       </c>
       <c r="L2">
-        <v>0.2453518038999634</v>
+        <v>0.2487213319832141</v>
       </c>
       <c r="M2">
-        <v>0.3840673739046385</v>
+        <v>0.3860459270732419</v>
       </c>
       <c r="N2">
-        <v>0.3840673739046385</v>
+        <v>0.3861683830142488</v>
       </c>
       <c r="O2">
-        <v>0.5321267738290694</v>
+        <v>0.5325671162498899</v>
       </c>
       <c r="P2">
-        <v>0.5321267738290694</v>
+        <v>0.5325671162498899</v>
       </c>
       <c r="Q2">
-        <v>0.5321267738290694</v>
+        <v>0.5325671162498899</v>
       </c>
       <c r="R2">
-        <v>0.6617742796272118</v>
+        <v>0.6610853794578069</v>
       </c>
       <c r="S2">
-        <v>0.6617742796272118</v>
+        <v>0.6610853794578069</v>
       </c>
       <c r="T2">
-        <v>0.9148836870071987</v>
+        <v>0.909502052664077</v>
       </c>
       <c r="U2">
-        <v>0.9148836870071987</v>
+        <v>0.909502052664077</v>
       </c>
       <c r="V2">
-        <v>0.9469715140641506</v>
+        <v>0.9432765106077876</v>
       </c>
       <c r="W2">
-        <v>0.9469715140641506</v>
+        <v>0.9432765106077876</v>
       </c>
       <c r="X2">
-        <v>0.9469715140641506</v>
+        <v>0.9432765106077876</v>
       </c>
       <c r="Y2">
-        <v>0.9469715140641506</v>
+        <v>0.9432765106077876</v>
       </c>
       <c r="Z2">
-        <v>0.9469715140641506</v>
+        <v>0.9432765106077876</v>
       </c>
       <c r="AA2">
-        <v>0.9469715140641506</v>
+        <v>0.9432765106077876</v>
       </c>
       <c r="AB2">
-        <v>0.9469715140641506</v>
+        <v>0.9432765106077876</v>
       </c>
       <c r="AC2">
-        <v>0.985557470295792</v>
+        <v>0.9833615416596946</v>
       </c>
       <c r="AD2">
-        <v>0.985557470295792</v>
+        <v>0.9833615416596946</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -2106,82 +2106,82 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09440458670469844</v>
+        <v>0.09427689057014813</v>
       </c>
       <c r="E3">
-        <v>0.09440458670469844</v>
+        <v>0.09427689057014813</v>
       </c>
       <c r="F3">
-        <v>0.1836902702862993</v>
+        <v>0.1834722697613971</v>
       </c>
       <c r="G3">
-        <v>0.3068598019491091</v>
+        <v>0.3063039877238635</v>
       </c>
       <c r="H3">
-        <v>0.30787589922789</v>
+        <v>0.3078745581578266</v>
       </c>
       <c r="I3">
-        <v>0.30787589922789</v>
+        <v>0.3078745581578266</v>
       </c>
       <c r="J3">
-        <v>0.30787589922789</v>
+        <v>0.3078745581578266</v>
       </c>
       <c r="K3">
-        <v>0.30787589922789</v>
+        <v>0.3078745581578266</v>
       </c>
       <c r="L3">
-        <v>0.3695462524790606</v>
+        <v>0.3696563270635143</v>
       </c>
       <c r="M3">
-        <v>0.3695462524790606</v>
+        <v>0.3696563270635143</v>
       </c>
       <c r="N3">
-        <v>0.5550017396863993</v>
+        <v>0.5543190240919809</v>
       </c>
       <c r="O3">
-        <v>0.5550017396863993</v>
+        <v>0.5543190240919809</v>
       </c>
       <c r="P3">
-        <v>0.5550017396863993</v>
+        <v>0.5543190240919809</v>
       </c>
       <c r="Q3">
-        <v>0.6510993146389623</v>
+        <v>0.6502765362404215</v>
       </c>
       <c r="R3">
-        <v>0.6510993146389623</v>
+        <v>0.6502765362404215</v>
       </c>
       <c r="S3">
-        <v>0.8515397516793158</v>
+        <v>0.849814723438864</v>
       </c>
       <c r="T3">
-        <v>0.8555442401208976</v>
+        <v>0.8543518559141859</v>
       </c>
       <c r="U3">
-        <v>0.8971125269536186</v>
+        <v>0.896178396758647</v>
       </c>
       <c r="V3">
-        <v>0.8971125269536186</v>
+        <v>0.896178396758647</v>
       </c>
       <c r="W3">
-        <v>0.8971125269536186</v>
+        <v>0.896178396758647</v>
       </c>
       <c r="X3">
-        <v>0.9009115337528599</v>
+        <v>0.9005115485610399</v>
       </c>
       <c r="Y3">
-        <v>0.9009115337528599</v>
+        <v>0.9005115485610399</v>
       </c>
       <c r="Z3">
-        <v>0.9009115337528599</v>
+        <v>0.9005115485610399</v>
       </c>
       <c r="AA3">
-        <v>0.9009115337528599</v>
+        <v>0.9005115485610399</v>
       </c>
       <c r="AB3">
-        <v>0.9648925786339329</v>
+        <v>0.9645871303262626</v>
       </c>
       <c r="AC3">
-        <v>0.9648925786339329</v>
+        <v>0.9645871303262626</v>
       </c>
       <c r="AD3">
         <v>0.9999999999999998</v>
@@ -2225,82 +2225,82 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1955346710943545</v>
+        <v>0.3587946501546363</v>
       </c>
       <c r="F4">
-        <v>0.2205733905168606</v>
+        <v>0.3587946501546363</v>
       </c>
       <c r="G4">
-        <v>0.3213126583468706</v>
+        <v>0.4803738209495934</v>
       </c>
       <c r="H4">
-        <v>0.3914015076026704</v>
+        <v>0.5252535581825556</v>
       </c>
       <c r="I4">
-        <v>0.3914015076026704</v>
+        <v>0.5252535581825556</v>
       </c>
       <c r="J4">
-        <v>0.3914015076026704</v>
+        <v>0.5252535581825556</v>
       </c>
       <c r="K4">
-        <v>0.3914015076026704</v>
+        <v>0.5252535581825556</v>
       </c>
       <c r="L4">
-        <v>0.3914015076026704</v>
+        <v>0.5252535581825556</v>
       </c>
       <c r="M4">
-        <v>0.4645510002369705</v>
+        <v>0.5777922320430184</v>
       </c>
       <c r="N4">
-        <v>0.5613680358433301</v>
+        <v>0.6895564311721165</v>
       </c>
       <c r="O4">
-        <v>0.6248068542481457</v>
+        <v>0.7177951689288289</v>
       </c>
       <c r="P4">
-        <v>0.6248068542481457</v>
+        <v>0.7177951689288289</v>
       </c>
       <c r="Q4">
-        <v>0.6601083405201085</v>
+        <v>0.7177951689288289</v>
       </c>
       <c r="R4">
-        <v>0.7303346303114059</v>
+        <v>0.7630188365781281</v>
       </c>
       <c r="S4">
-        <v>0.7824887613064899</v>
+        <v>0.7630188365781281</v>
       </c>
       <c r="T4">
-        <v>0.9293446588695458</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.9327419314017138</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9327419314017138</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9327419314017138</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9327419314017138</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9370389682752162</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9370389682752162</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9370389682752162</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9432111620176578</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9796991817246569</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9866971839190753</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -2341,82 +2341,82 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1610451991759126</v>
+        <v>0.1585618014643234</v>
       </c>
       <c r="F5">
-        <v>0.1610451991759126</v>
+        <v>0.1585618014643234</v>
       </c>
       <c r="G5">
-        <v>0.2133866499575366</v>
+        <v>0.2114298012148833</v>
       </c>
       <c r="H5">
-        <v>0.2924693602434832</v>
+        <v>0.2902986097818452</v>
       </c>
       <c r="I5">
-        <v>0.2924693602434832</v>
+        <v>0.2902986097818452</v>
       </c>
       <c r="J5">
-        <v>0.2924693602434832</v>
+        <v>0.2902986097818452</v>
       </c>
       <c r="K5">
-        <v>0.2924693602434832</v>
+        <v>0.2902986097818452</v>
       </c>
       <c r="L5">
-        <v>0.2936916923277518</v>
+        <v>0.2934629509632173</v>
       </c>
       <c r="M5">
-        <v>0.4035906956936622</v>
+        <v>0.4022947664959816</v>
       </c>
       <c r="N5">
-        <v>0.4208389622081558</v>
+        <v>0.4210412928454502</v>
       </c>
       <c r="O5">
-        <v>0.5701690915554083</v>
+        <v>0.5682124082863065</v>
       </c>
       <c r="P5">
-        <v>0.5701690915554083</v>
+        <v>0.5682124082863065</v>
       </c>
       <c r="Q5">
-        <v>0.5701690915554083</v>
+        <v>0.5688823469181693</v>
       </c>
       <c r="R5">
-        <v>0.6789144415346222</v>
+        <v>0.6765924530885516</v>
       </c>
       <c r="S5">
-        <v>0.6789144415346222</v>
+        <v>0.6765924530885516</v>
       </c>
       <c r="T5">
-        <v>0.8880190009284608</v>
+        <v>0.8818828776629009</v>
       </c>
       <c r="U5">
-        <v>0.8880190009284608</v>
+        <v>0.8818828776629009</v>
       </c>
       <c r="V5">
-        <v>0.8993161241626151</v>
+        <v>0.8948430445985167</v>
       </c>
       <c r="W5">
-        <v>0.8993161241626151</v>
+        <v>0.8948430445985167</v>
       </c>
       <c r="X5">
-        <v>0.8993161241626151</v>
+        <v>0.8948430445985167</v>
       </c>
       <c r="Y5">
-        <v>0.9075198200427399</v>
+        <v>0.9047954394728895</v>
       </c>
       <c r="Z5">
-        <v>0.9075198200427399</v>
+        <v>0.9061288354916291</v>
       </c>
       <c r="AA5">
-        <v>0.9075198200427399</v>
+        <v>0.9061288354916291</v>
       </c>
       <c r="AB5">
-        <v>0.9075198200427399</v>
+        <v>0.9061288354916291</v>
       </c>
       <c r="AC5">
-        <v>0.9826877959686963</v>
+        <v>0.9811913065282046</v>
       </c>
       <c r="AD5">
-        <v>0.9826877959686963</v>
+        <v>0.9811913065282046</v>
       </c>
       <c r="AE5">
         <v>0.9999999999999999</v>
@@ -2457,106 +2457,106 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01215440627324932</v>
+        <v>0.01697052376227159</v>
       </c>
       <c r="F6">
-        <v>0.05803555621841293</v>
+        <v>0.06417164028437845</v>
       </c>
       <c r="G6">
-        <v>0.1188420077854119</v>
+        <v>0.1247508854374788</v>
       </c>
       <c r="H6">
-        <v>0.2494029334076566</v>
+        <v>0.2478537800378469</v>
       </c>
       <c r="I6">
-        <v>0.2842313996194336</v>
+        <v>0.2851479460373182</v>
       </c>
       <c r="J6">
-        <v>0.2968921591258644</v>
+        <v>0.3025723339061825</v>
       </c>
       <c r="K6">
-        <v>0.2968921591258644</v>
+        <v>0.3025723339061825</v>
       </c>
       <c r="L6">
-        <v>0.2968921591258644</v>
+        <v>0.3025723339061825</v>
       </c>
       <c r="M6">
-        <v>0.299266677648297</v>
+        <v>0.3107767637132276</v>
       </c>
       <c r="N6">
-        <v>0.299266677648297</v>
+        <v>0.3107767637132276</v>
       </c>
       <c r="O6">
-        <v>0.5230334639612281</v>
+        <v>0.5174236981645723</v>
       </c>
       <c r="P6">
-        <v>0.5230334639612281</v>
+        <v>0.5174236981645723</v>
       </c>
       <c r="Q6">
-        <v>0.5230334639612281</v>
+        <v>0.5177918254759573</v>
       </c>
       <c r="R6">
-        <v>0.6509088676058344</v>
+        <v>0.6384875822262169</v>
       </c>
       <c r="S6">
-        <v>0.658957110924401</v>
+        <v>0.6517775923493403</v>
       </c>
       <c r="T6">
-        <v>0.7938237279950101</v>
+        <v>0.7787398457419835</v>
       </c>
       <c r="U6">
-        <v>0.8279793710301075</v>
+        <v>0.8154309341466701</v>
       </c>
       <c r="V6">
-        <v>0.8574774278957599</v>
+        <v>0.8479472468273195</v>
       </c>
       <c r="W6">
-        <v>0.8574774278957599</v>
+        <v>0.8479472468273195</v>
       </c>
       <c r="X6">
-        <v>0.8574774278957599</v>
+        <v>0.8479472468273195</v>
       </c>
       <c r="Y6">
-        <v>0.8574774278957599</v>
+        <v>0.8479472468273195</v>
       </c>
       <c r="Z6">
-        <v>0.8692639309845254</v>
+        <v>0.8645880046491443</v>
       </c>
       <c r="AA6">
-        <v>0.8692639309845254</v>
+        <v>0.8645880046491443</v>
       </c>
       <c r="AB6">
-        <v>0.8692639309845254</v>
+        <v>0.8645880046491443</v>
       </c>
       <c r="AC6">
-        <v>0.9514974023965904</v>
+        <v>0.9443731214776804</v>
       </c>
       <c r="AD6">
-        <v>0.9715389119690973</v>
+        <v>0.9684131628374413</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -2573,91 +2573,91 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1696057956428076</v>
+        <v>0.1623978217069856</v>
       </c>
       <c r="F7">
-        <v>0.1696057956428076</v>
+        <v>0.1623978217069856</v>
       </c>
       <c r="G7">
-        <v>0.2704701242029058</v>
+        <v>0.2610685176805582</v>
       </c>
       <c r="H7">
-        <v>0.3466826248509403</v>
+        <v>0.3368856115478456</v>
       </c>
       <c r="I7">
-        <v>0.3466826248509403</v>
+        <v>0.3388688961011335</v>
       </c>
       <c r="J7">
-        <v>0.3466826248509403</v>
+        <v>0.3388688961011335</v>
       </c>
       <c r="K7">
-        <v>0.3466826248509403</v>
+        <v>0.3388688961011335</v>
       </c>
       <c r="L7">
-        <v>0.3466826248509403</v>
+        <v>0.3388688961011335</v>
       </c>
       <c r="M7">
-        <v>0.4260157776338419</v>
+        <v>0.417579006358799</v>
       </c>
       <c r="N7">
-        <v>0.4400270488549011</v>
+        <v>0.4357321349851879</v>
       </c>
       <c r="O7">
-        <v>0.5791628592099398</v>
+        <v>0.5698826022795513</v>
       </c>
       <c r="P7">
-        <v>0.5791628592099398</v>
+        <v>0.5698826022795513</v>
       </c>
       <c r="Q7">
-        <v>0.5852479686057306</v>
+        <v>0.5806877423822953</v>
       </c>
       <c r="R7">
-        <v>0.743009586888249</v>
+        <v>0.7321053593907134</v>
       </c>
       <c r="S7">
-        <v>0.743009586888249</v>
+        <v>0.7343582263498434</v>
       </c>
       <c r="T7">
-        <v>0.9218894458179679</v>
+        <v>0.9053536154673925</v>
       </c>
       <c r="U7">
-        <v>0.9218894458179679</v>
+        <v>0.9053536154673925</v>
       </c>
       <c r="V7">
-        <v>0.9271276832801164</v>
+        <v>0.9153736586485013</v>
       </c>
       <c r="W7">
-        <v>0.9271276832801164</v>
+        <v>0.9153736586485013</v>
       </c>
       <c r="X7">
-        <v>0.9271276832801164</v>
+        <v>0.9153736586485013</v>
       </c>
       <c r="Y7">
-        <v>0.9271276832801164</v>
+        <v>0.9153736586485013</v>
       </c>
       <c r="Z7">
-        <v>0.9271276832801164</v>
+        <v>0.9153736586485013</v>
       </c>
       <c r="AA7">
-        <v>0.9271276832801164</v>
+        <v>0.9157461934881023</v>
       </c>
       <c r="AB7">
-        <v>0.9271276832801164</v>
+        <v>0.9157461934881023</v>
       </c>
       <c r="AC7">
-        <v>0.992783900800471</v>
+        <v>0.981777031537693</v>
       </c>
       <c r="AD7">
-        <v>0.992783900800471</v>
+        <v>0.981777031537693</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9936306614746635</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9936306614746635</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9951406562430549</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -2686,109 +2686,109 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1836968285913363</v>
+        <v>0.1645843699394739</v>
       </c>
       <c r="E8">
-        <v>0.2216010793746934</v>
+        <v>0.2057185035545221</v>
       </c>
       <c r="F8">
-        <v>0.3350055510421596</v>
+        <v>0.3107826413633744</v>
       </c>
       <c r="G8">
-        <v>0.4003910876139044</v>
+        <v>0.3751866236640248</v>
       </c>
       <c r="H8">
-        <v>0.4003910876139044</v>
+        <v>0.3751866236640248</v>
       </c>
       <c r="I8">
-        <v>0.4003910876139044</v>
+        <v>0.3751866236640248</v>
       </c>
       <c r="J8">
-        <v>0.4003910876139044</v>
+        <v>0.3751866236640248</v>
       </c>
       <c r="K8">
-        <v>0.4003910876139044</v>
+        <v>0.3760265055818386</v>
       </c>
       <c r="L8">
-        <v>0.4099687185842053</v>
+        <v>0.393175001774386</v>
       </c>
       <c r="M8">
-        <v>0.5588408727288532</v>
+        <v>0.5282714899917386</v>
       </c>
       <c r="N8">
-        <v>0.6226239689469369</v>
+        <v>0.5913186018444584</v>
       </c>
       <c r="O8">
-        <v>0.6226239689469369</v>
+        <v>0.5913186018444584</v>
       </c>
       <c r="P8">
-        <v>0.710869405417034</v>
+        <v>0.6750792625661541</v>
       </c>
       <c r="Q8">
-        <v>0.7664618076999483</v>
+        <v>0.7311908834826381</v>
       </c>
       <c r="R8">
-        <v>0.8207922443092879</v>
+        <v>0.7862339317531174</v>
       </c>
       <c r="S8">
-        <v>0.8823959418634303</v>
+        <v>0.8474356322402253</v>
       </c>
       <c r="T8">
-        <v>0.8823959418634303</v>
+        <v>0.8502403653607418</v>
       </c>
       <c r="U8">
-        <v>0.8823959418634303</v>
+        <v>0.8514500039874938</v>
       </c>
       <c r="V8">
-        <v>0.8823959418634303</v>
+        <v>0.8514500039874938</v>
       </c>
       <c r="W8">
-        <v>0.8823959418634303</v>
+        <v>0.8539863464471319</v>
       </c>
       <c r="X8">
-        <v>0.8931824990516168</v>
+        <v>0.8721585039915852</v>
       </c>
       <c r="Y8">
-        <v>0.8931824990516168</v>
+        <v>0.8747463159095433</v>
       </c>
       <c r="Z8">
-        <v>0.8931824990516168</v>
+        <v>0.8758806116299229</v>
       </c>
       <c r="AA8">
-        <v>0.9555245332821085</v>
+        <v>0.9377075005769151</v>
       </c>
       <c r="AB8">
-        <v>0.9908214870745472</v>
+        <v>0.9766338988289138</v>
       </c>
       <c r="AC8">
-        <v>0.9999999999999999</v>
+        <v>0.9934444408011665</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999999</v>
+        <v>0.9954776370274097</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999999</v>
+        <v>0.9954776370274097</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999999</v>
+        <v>0.9982211683889477</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>0.9982211683889477</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>0.9982211683889477</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2805,106 +2805,106 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09263409045925813</v>
+        <v>0.08878030572103368</v>
       </c>
       <c r="F9">
-        <v>0.1373482599519253</v>
+        <v>0.1357280682507003</v>
       </c>
       <c r="G9">
-        <v>0.218648639795323</v>
+        <v>0.2146144106827089</v>
       </c>
       <c r="H9">
-        <v>0.357468258165527</v>
+        <v>0.3437131904783917</v>
       </c>
       <c r="I9">
-        <v>0.3872269043421256</v>
+        <v>0.3776052642162276</v>
       </c>
       <c r="J9">
-        <v>0.3872269043421256</v>
+        <v>0.3776052642162276</v>
       </c>
       <c r="K9">
-        <v>0.3872269043421256</v>
+        <v>0.3792491710400708</v>
       </c>
       <c r="L9">
-        <v>0.3872269043421256</v>
+        <v>0.3792491710400708</v>
       </c>
       <c r="M9">
-        <v>0.3872269043421256</v>
+        <v>0.3808608302131974</v>
       </c>
       <c r="N9">
-        <v>0.3872269043421256</v>
+        <v>0.3808608302131974</v>
       </c>
       <c r="O9">
-        <v>0.5772961446357234</v>
+        <v>0.5546988745862633</v>
       </c>
       <c r="P9">
-        <v>0.5772961446357234</v>
+        <v>0.5603290625433347</v>
       </c>
       <c r="Q9">
-        <v>0.5772961446357234</v>
+        <v>0.561609257325879</v>
       </c>
       <c r="R9">
-        <v>0.6686565284489301</v>
+        <v>0.6492776582856084</v>
       </c>
       <c r="S9">
-        <v>0.6686565284489301</v>
+        <v>0.6492776582856084</v>
       </c>
       <c r="T9">
-        <v>0.7692427492346815</v>
+        <v>0.7449999169280238</v>
       </c>
       <c r="U9">
-        <v>0.7996756695096295</v>
+        <v>0.7794806101746793</v>
       </c>
       <c r="V9">
-        <v>0.7996756695096295</v>
+        <v>0.7794806101746793</v>
       </c>
       <c r="W9">
-        <v>0.7996756695096295</v>
+        <v>0.7794806101746793</v>
       </c>
       <c r="X9">
-        <v>0.7996756695096295</v>
+        <v>0.7794806101746793</v>
       </c>
       <c r="Y9">
-        <v>0.8219989519570253</v>
+        <v>0.8068818515390175</v>
       </c>
       <c r="Z9">
-        <v>0.8247819149933829</v>
+        <v>0.8172250252094366</v>
       </c>
       <c r="AA9">
-        <v>0.8273277466361123</v>
+        <v>0.8273611908325574</v>
       </c>
       <c r="AB9">
-        <v>0.8273277466361123</v>
+        <v>0.828024308979054</v>
       </c>
       <c r="AC9">
-        <v>0.9509564881672975</v>
+        <v>0.9438619439592845</v>
       </c>
       <c r="AD9">
-        <v>0.9509564881672975</v>
+        <v>0.9438619439592845</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>0.9945890825141328</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>0.9945890825141328</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0.9945890825141328</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2921,94 +2921,94 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.005952270627776003</v>
+        <v>0.01432742142920779</v>
       </c>
       <c r="F10">
-        <v>0.1857360594737605</v>
+        <v>0.1726498195273516</v>
       </c>
       <c r="G10">
-        <v>0.2259936478260065</v>
+        <v>0.2153943742589023</v>
       </c>
       <c r="H10">
-        <v>0.334504022141216</v>
+        <v>0.3146767676003062</v>
       </c>
       <c r="I10">
-        <v>0.3791109077819883</v>
+        <v>0.3610241037377092</v>
       </c>
       <c r="J10">
-        <v>0.3791109077819883</v>
+        <v>0.3610241037377092</v>
       </c>
       <c r="K10">
-        <v>0.3791109077819883</v>
+        <v>0.3610241037377092</v>
       </c>
       <c r="L10">
-        <v>0.3791109077819883</v>
+        <v>0.3610241037377092</v>
       </c>
       <c r="M10">
-        <v>0.3791109077819883</v>
+        <v>0.3616502221343699</v>
       </c>
       <c r="N10">
-        <v>0.3791109077819883</v>
+        <v>0.3704977086001419</v>
       </c>
       <c r="O10">
-        <v>0.5337360916549192</v>
+        <v>0.5079797391213869</v>
       </c>
       <c r="P10">
-        <v>0.5848468491905002</v>
+        <v>0.5597146188489869</v>
       </c>
       <c r="Q10">
-        <v>0.5848468491905002</v>
+        <v>0.5597146188489869</v>
       </c>
       <c r="R10">
-        <v>0.6512020450451639</v>
+        <v>0.6240773727537647</v>
       </c>
       <c r="S10">
-        <v>0.6754826210864422</v>
+        <v>0.6535872187366456</v>
       </c>
       <c r="T10">
-        <v>0.7596846170685787</v>
+        <v>0.7327335377526981</v>
       </c>
       <c r="U10">
-        <v>0.8479481699073983</v>
+        <v>0.815244285675616</v>
       </c>
       <c r="V10">
-        <v>0.8479481699073983</v>
+        <v>0.815244285675616</v>
       </c>
       <c r="W10">
-        <v>0.8479481699073983</v>
+        <v>0.815244285675616</v>
       </c>
       <c r="X10">
-        <v>0.8479481699073983</v>
+        <v>0.815244285675616</v>
       </c>
       <c r="Y10">
-        <v>0.8496917964122392</v>
+        <v>0.8260854370744997</v>
       </c>
       <c r="Z10">
-        <v>0.8663633134356531</v>
+        <v>0.8492922472961985</v>
       </c>
       <c r="AA10">
-        <v>0.8663633134356531</v>
+        <v>0.8527166687291471</v>
       </c>
       <c r="AB10">
-        <v>0.8663633134356531</v>
+        <v>0.8527166687291471</v>
       </c>
       <c r="AC10">
-        <v>0.9567534132370727</v>
+        <v>0.9369889618735743</v>
       </c>
       <c r="AD10">
-        <v>0.9839226306755224</v>
+        <v>0.9688916411864182</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9916062835612088</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9931864047908981</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9931864047908981</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9993074022438481</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -3043,100 +3043,100 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1238156401614066</v>
+        <v>0.1118381949897782</v>
       </c>
       <c r="H11">
-        <v>0.1238156401614066</v>
+        <v>0.1194643543832431</v>
       </c>
       <c r="I11">
-        <v>0.194868540329662</v>
+        <v>0.1879052677645516</v>
       </c>
       <c r="J11">
-        <v>0.3010065219604329</v>
+        <v>0.2852036127478301</v>
       </c>
       <c r="K11">
-        <v>0.3163634347879645</v>
+        <v>0.3078346525819936</v>
       </c>
       <c r="L11">
-        <v>0.3163634347879645</v>
+        <v>0.3081890306000715</v>
       </c>
       <c r="M11">
-        <v>0.3163634347879645</v>
+        <v>0.3108246210113541</v>
       </c>
       <c r="N11">
-        <v>0.3163634347879645</v>
+        <v>0.3155379030402036</v>
       </c>
       <c r="O11">
-        <v>0.3163634347879645</v>
+        <v>0.317388948012583</v>
       </c>
       <c r="P11">
-        <v>0.3330444817996432</v>
+        <v>0.3411090864053941</v>
       </c>
       <c r="Q11">
-        <v>0.508729172693588</v>
+        <v>0.4956095048069235</v>
       </c>
       <c r="R11">
-        <v>0.508729172693588</v>
+        <v>0.4957800140514708</v>
       </c>
       <c r="S11">
-        <v>0.5419837862152197</v>
+        <v>0.5331318882711645</v>
       </c>
       <c r="T11">
-        <v>0.6864389648915279</v>
+        <v>0.6619460755107065</v>
       </c>
       <c r="U11">
-        <v>0.6864389648915279</v>
+        <v>0.6626106826584254</v>
       </c>
       <c r="V11">
-        <v>0.7492929904118781</v>
+        <v>0.724308032835589</v>
       </c>
       <c r="W11">
-        <v>0.7492929904118781</v>
+        <v>0.7268073171843785</v>
       </c>
       <c r="X11">
-        <v>0.7492929904118781</v>
+        <v>0.7268876919973426</v>
       </c>
       <c r="Y11">
-        <v>0.7492929904118781</v>
+        <v>0.727645362842493</v>
       </c>
       <c r="Z11">
-        <v>0.7492929904118781</v>
+        <v>0.7278662122990929</v>
       </c>
       <c r="AA11">
-        <v>0.7691379995948031</v>
+        <v>0.7541887052580607</v>
       </c>
       <c r="AB11">
-        <v>0.7691379995948031</v>
+        <v>0.7636286299337498</v>
       </c>
       <c r="AC11">
-        <v>0.7743120592984205</v>
+        <v>0.7778842869759365</v>
       </c>
       <c r="AD11">
-        <v>0.7780506293291171</v>
+        <v>0.7909592557219907</v>
       </c>
       <c r="AE11">
-        <v>0.9444033496722419</v>
+        <v>0.9377841410862205</v>
       </c>
       <c r="AF11">
-        <v>0.9444033496722419</v>
+        <v>0.937941828066463</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999998</v>
+        <v>0.9936699970560663</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999998</v>
+        <v>0.9938129506292337</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>0.9942832877719257</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9984976477685682</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999998</v>
+        <v>0.9993994378725128</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5321267738290694</v>
+        <v>0.5325671162498899</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5550017396863993</v>
+        <v>0.5543190240919809</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3286,16 +3286,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5613680358433301</v>
+        <v>0.5252535581825556</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5701690915554083</v>
+        <v>0.5682124082863065</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5230334639612281</v>
+        <v>0.5174236981645723</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5791628592099398</v>
+        <v>0.5698826022795513</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5588408727288532</v>
+        <v>0.5282714899917386</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5772961446357234</v>
+        <v>0.5546988745862633</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5337360916549192</v>
+        <v>0.5079797391213869</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -3573,16 +3573,16 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.508729172693588</v>
+        <v>0.5331318882711645</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>32</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9148836870071987</v>
+        <v>0.909502052664077</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8515397516793158</v>
+        <v>0.849814723438864</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -3750,16 +3750,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7303346303114059</v>
+        <v>0.7177951689288289</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8880190009284608</v>
+        <v>0.8818828776629009</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7938237279950101</v>
+        <v>0.7787398457419835</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.743009586888249</v>
+        <v>0.7321053593907134</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3914,16 +3914,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.7311908834826381</v>
+      </c>
+      <c r="G8">
         <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.710869405417034</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7692427492346815</v>
+        <v>0.7449999169280238</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7596846170685787</v>
+        <v>0.7327335377526981</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7492929904118781</v>
+        <v>0.724308032835589</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9148836870071987</v>
+        <v>0.909502052664077</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8515397516793158</v>
+        <v>0.849814723438864</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9293446588695458</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8880190009284608</v>
+        <v>0.8818828776629009</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8279793710301075</v>
+        <v>0.8154309341466701</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9218894458179679</v>
+        <v>0.9053536154673925</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -4378,16 +4378,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8474356322402253</v>
+      </c>
+      <c r="G8">
         <v>17</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8207922443092879</v>
-      </c>
-      <c r="G8">
-        <v>16</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8219989519570253</v>
+        <v>0.8068818515390175</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8479481699073983</v>
+        <v>0.815244285675616</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9444033496722419</v>
+        <v>0.9377841410862205</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9148836870071987</v>
+        <v>0.909502052664077</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9009115337528599</v>
+        <v>0.9005115485610399</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9293446588695458</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9075198200427399</v>
+        <v>0.9047954394728895</v>
       </c>
       <c r="G5">
         <v>22</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9514974023965904</v>
+        <v>0.9443731214776804</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9218894458179679</v>
+        <v>0.9053536154673925</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9555245332821085</v>
+        <v>0.9377075005769151</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9509564881672975</v>
+        <v>0.9438619439592845</v>
       </c>
       <c r="G9">
         <v>26</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9567534132370727</v>
+        <v>0.9369889618735743</v>
       </c>
       <c r="G10">
         <v>25</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9444033496722419</v>
+        <v>0.9377841410862205</v>
       </c>
       <c r="G11">
         <v>26</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/32_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/32_11R22.xlsx
@@ -165,40 +165,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -208,9 +211,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1007935942538728</v>
+        <v>0.101752087329556</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.06754654555748671</v>
+        <v>0.05663910279819057</v>
       </c>
       <c r="H2">
-        <v>0.06636057991207149</v>
+        <v>0.05502986372542549</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01402061225978301</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1373245950900279</v>
+        <v>0.1513210728562592</v>
       </c>
       <c r="N2">
-        <v>0.000122455941006923</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1463987332356411</v>
+        <v>0.163633788415972</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1285182632079169</v>
+        <v>0.1393717441322656</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.2484166732062701</v>
+        <v>0.3020621280212561</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.03377445794371055</v>
+        <v>0.01081369194667611</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.04008503105190696</v>
+        <v>0.01937652077439881</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01663845834030528</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09427689057014813</v>
+        <v>0.0936875367819504</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.08919537919124898</v>
+        <v>0.08683207847384143</v>
       </c>
       <c r="G3">
-        <v>0.1228317179624664</v>
+        <v>0.1322108055669342</v>
       </c>
       <c r="H3">
-        <v>0.001570570433963139</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06178176890568773</v>
+        <v>0.04984842373525344</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1846626970284665</v>
+        <v>0.2156268736479135</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.09595751214844057</v>
+        <v>0.09595486047811186</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1995381871984425</v>
+        <v>0.2356953719880761</v>
       </c>
       <c r="T3">
-        <v>0.004537132475321911</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.04182654084446105</v>
+        <v>0.0229268596961344</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.004333151802392908</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06407558176522278</v>
+        <v>0.05294300273992616</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03541286967373715</v>
+        <v>0.01427418689185871</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -936,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3587946501546363</v>
+        <v>0.2558102634435609</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0002085905633937447</v>
       </c>
       <c r="G4">
-        <v>0.1215791707949571</v>
+        <v>0.1136962518314175</v>
       </c>
       <c r="H4">
-        <v>0.04487973723296221</v>
+        <v>0.06774619738599542</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -960,28 +960,28 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.05253867386046286</v>
+        <v>0.07233460878206179</v>
       </c>
       <c r="N4">
-        <v>0.111764199129098</v>
+        <v>0.1078161760410016</v>
       </c>
       <c r="O4">
-        <v>0.02823873775671234</v>
+        <v>0.05777669961464794</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.01559417801798061</v>
       </c>
       <c r="R4">
-        <v>0.04522366764929916</v>
+        <v>0.06795224351465876</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.04085908396704184</v>
       </c>
       <c r="T4">
-        <v>0.2369811634218719</v>
+        <v>0.1828327186611344</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01737298817710561</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1052,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1585618014643234</v>
+        <v>0.182247344706856</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.05286799975055986</v>
+        <v>0.03737698001962338</v>
       </c>
       <c r="H5">
-        <v>0.07886880856696196</v>
+        <v>0.07301527284587792</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1073,37 +1073,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.003164341181372079</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1088318155327643</v>
+        <v>0.1140843958774949</v>
       </c>
       <c r="N5">
-        <v>0.01874652634946857</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1471711154408564</v>
+        <v>0.1666345763940426</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.000669938631862853</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1077101061703823</v>
+        <v>0.1125469126782297</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.2052904245743492</v>
+        <v>0.2462964427761531</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01296016693561581</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.009952394874372864</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.00133339601873963</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.07506247103657547</v>
+        <v>0.06779807470172236</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01880869347179521</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01697052376227159</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04720111652210687</v>
+        <v>0.03173791810528614</v>
       </c>
       <c r="G6">
-        <v>0.06057924515310035</v>
+        <v>0.05442284156533252</v>
       </c>
       <c r="H6">
-        <v>0.1231028946003681</v>
+        <v>0.1604424681720107</v>
       </c>
       <c r="I6">
-        <v>0.03729416599947135</v>
+        <v>0.0149389755530524</v>
       </c>
       <c r="J6">
-        <v>0.01742438786886426</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1192,34 +1192,34 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0082044298070451</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2066469344513448</v>
+        <v>0.3021057905870627</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003681273113849248</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1206957567502597</v>
+        <v>0.1563607509607571</v>
       </c>
       <c r="S6">
-        <v>0.01329001012312335</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1269622533926432</v>
+        <v>0.1669866763510821</v>
       </c>
       <c r="U6">
-        <v>0.03669108840468664</v>
+        <v>0.01391635352156247</v>
       </c>
       <c r="V6">
-        <v>0.03251631268064932</v>
+        <v>0.006837301557355639</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01664075782182483</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1240,13 +1240,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.07978511682853605</v>
+        <v>0.08698970805003434</v>
       </c>
       <c r="AD6">
-        <v>0.02404004135976085</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.03158683716255863</v>
+        <v>0.00526121557646396</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1284,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1623978217069856</v>
+        <v>0.1879982303985969</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.09867069597357261</v>
+        <v>0.09902805621465853</v>
       </c>
       <c r="H7">
-        <v>0.07581709386728734</v>
+        <v>0.06712187910834441</v>
       </c>
       <c r="I7">
-        <v>0.001983284553287901</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1308,34 +1308,34 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.07871011025766557</v>
+        <v>0.07116085260992171</v>
       </c>
       <c r="N7">
-        <v>0.01815312862638884</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1341504672943634</v>
+        <v>0.1485617735773733</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01080514010274395</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.1514176170084181</v>
+        <v>0.172668640159528</v>
       </c>
       <c r="S7">
-        <v>0.002252866959129989</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1709953891175491</v>
+        <v>0.2000013932789672</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.01002004318110884</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1350,28 +1350,28 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0003725348396009464</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.06603083804959073</v>
+        <v>0.05345917465261001</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.01185362993697046</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.001509994768391374</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.00485934375694537</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1645843699394739</v>
+        <v>0.2351999673184269</v>
       </c>
       <c r="E8">
-        <v>0.04113413361504821</v>
+        <v>0.01987349304531574</v>
       </c>
       <c r="F8">
-        <v>0.1050641378088522</v>
+        <v>0.1313825740578512</v>
       </c>
       <c r="G8">
-        <v>0.06440398230065039</v>
+        <v>0.06046162493978755</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1418,70 +1418,70 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0008398819178138677</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01714849619254737</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1350964882173525</v>
+        <v>0.1837661119119418</v>
       </c>
       <c r="N8">
-        <v>0.06304711185271986</v>
+        <v>0.05809492125174893</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.08376066072169576</v>
+        <v>0.09422426033149831</v>
       </c>
       <c r="Q8">
-        <v>0.05611162091648395</v>
+        <v>0.04599778109943547</v>
       </c>
       <c r="R8">
-        <v>0.0550430482704793</v>
+        <v>0.04413393711485052</v>
       </c>
       <c r="S8">
-        <v>0.06120170048710797</v>
+        <v>0.05487608640159552</v>
       </c>
       <c r="T8">
-        <v>0.002804733120516385</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.001209638626752062</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.002536342459638115</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.01817215754445336</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.002587811917958048</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.001134295720379587</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.06182688894699215</v>
+        <v>0.05596656326766906</v>
       </c>
       <c r="AB8">
-        <v>0.03892639825199869</v>
+        <v>0.01602267925987902</v>
       </c>
       <c r="AC8">
-        <v>0.01681054197225262</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.00203319622624318</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.00274353136153805</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.001778831611052614</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1516,55 +1516,55 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08878030572103368</v>
+        <v>0.09693135590538587</v>
       </c>
       <c r="F9">
-        <v>0.04694776252966664</v>
+        <v>0.02884963983397881</v>
       </c>
       <c r="G9">
-        <v>0.07888634243200854</v>
+        <v>0.08082910755813873</v>
       </c>
       <c r="H9">
-        <v>0.1290987797956828</v>
+        <v>0.1625489515611317</v>
       </c>
       <c r="I9">
-        <v>0.03389207373783597</v>
+        <v>0.00760173976307183</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.001643906823843169</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.001611659173126632</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1738380443730659</v>
+        <v>0.2353613047156381</v>
       </c>
       <c r="P9">
-        <v>0.005630187957071402</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.001280194782544271</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.0876684009597294</v>
+        <v>0.0951217507873976</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.09572225864241543</v>
+        <v>0.1082292601617095</v>
       </c>
       <c r="U9">
-        <v>0.03448069324665547</v>
+        <v>0.008559707489064875</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.02740124136433824</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.01034317367041917</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.01013616562312086</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0006631181464965582</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.1158376349802305</v>
+        <v>0.140966675485367</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.0507271385548483</v>
+        <v>0.03500050673911598</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.005410917485867097</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1632,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01432742142920779</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1583223980981438</v>
+        <v>0.2335925361755744</v>
       </c>
       <c r="G10">
-        <v>0.04274455473155079</v>
+        <v>0.02350044480093124</v>
       </c>
       <c r="H10">
-        <v>0.09928239334140387</v>
+        <v>0.1262723291808</v>
       </c>
       <c r="I10">
-        <v>0.04634733613740292</v>
+        <v>0.03004941524607395</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1656,31 +1656,31 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0006261183966607516</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.008847486465771914</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1374820305212451</v>
+        <v>0.1957098738787928</v>
       </c>
       <c r="P10">
-        <v>0.05173487972759996</v>
+        <v>0.03984264435700675</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.06436275390477786</v>
+        <v>0.06279701362209368</v>
       </c>
       <c r="S10">
-        <v>0.02950984598288084</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.07914631901605249</v>
+        <v>0.08966989878529477</v>
       </c>
       <c r="U10">
-        <v>0.0825107479229179</v>
+        <v>0.09578560301316037</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1692,37 +1692,37 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.01084115139888366</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.02320681022169875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.003424421432948631</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.08427229314442722</v>
+        <v>0.09898765895102769</v>
       </c>
       <c r="AD10">
-        <v>0.03190267931284393</v>
+        <v>0.003792581989244279</v>
       </c>
       <c r="AE10">
-        <v>0.0227146423747906</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.001580121229689361</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.006120997452949957</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.0006925977561520478</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1754,100 +1754,100 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1118381949897782</v>
+        <v>0.1381248558443513</v>
       </c>
       <c r="H11">
-        <v>0.0076261593934649</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.06844091338130857</v>
+        <v>0.06487979872945183</v>
       </c>
       <c r="J11">
-        <v>0.09729834498327845</v>
+        <v>0.1135847900914701</v>
       </c>
       <c r="K11">
-        <v>0.0226310398341635</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0003543780180779274</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.002635590411282578</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.004713282028849543</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.001851044972379418</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.02372013839281106</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.1545004184015294</v>
+        <v>0.2101292965518187</v>
       </c>
       <c r="R11">
-        <v>0.0001705092445473494</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03735187421969371</v>
+        <v>0.01240834511205718</v>
       </c>
       <c r="T11">
-        <v>0.128814187239542</v>
+        <v>0.1667765933686983</v>
       </c>
       <c r="U11">
-        <v>0.000664607147718827</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.06169735017716362</v>
+        <v>0.05349814868736408</v>
       </c>
       <c r="W11">
-        <v>0.002499284348789549</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>8.037481296410074E-05</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.0007576708451504809</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.0002208494565998344</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.02632249295896785</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.009439924675689057</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01425565704218673</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.01307496874605415</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.1468248853642299</v>
+        <v>0.1971746866115827</v>
       </c>
       <c r="AF11">
-        <v>0.000157686980242474</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.05572816898960331</v>
+        <v>0.04342348500320582</v>
       </c>
       <c r="AH11">
-        <v>0.0001429535731673602</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.000470337142691941</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.004214359996642538</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.0009017901039446436</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.0006005621274871763</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1993,106 +1993,106 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1007935942538728</v>
+        <v>0.101752087329556</v>
       </c>
       <c r="F2">
-        <v>0.1007935942538728</v>
+        <v>0.101752087329556</v>
       </c>
       <c r="G2">
-        <v>0.1683401398113595</v>
+        <v>0.1583911901277466</v>
       </c>
       <c r="H2">
-        <v>0.234700719723431</v>
+        <v>0.2134210538531721</v>
       </c>
       <c r="I2">
-        <v>0.234700719723431</v>
+        <v>0.2134210538531721</v>
       </c>
       <c r="J2">
-        <v>0.234700719723431</v>
+        <v>0.2134210538531721</v>
       </c>
       <c r="K2">
-        <v>0.234700719723431</v>
+        <v>0.2134210538531721</v>
       </c>
       <c r="L2">
-        <v>0.2487213319832141</v>
+        <v>0.2134210538531721</v>
       </c>
       <c r="M2">
-        <v>0.3860459270732419</v>
+        <v>0.3647421267094313</v>
       </c>
       <c r="N2">
-        <v>0.3861683830142488</v>
+        <v>0.3647421267094313</v>
       </c>
       <c r="O2">
-        <v>0.5325671162498899</v>
+        <v>0.5283759151254033</v>
       </c>
       <c r="P2">
-        <v>0.5325671162498899</v>
+        <v>0.5283759151254033</v>
       </c>
       <c r="Q2">
-        <v>0.5325671162498899</v>
+        <v>0.5283759151254033</v>
       </c>
       <c r="R2">
-        <v>0.6610853794578069</v>
+        <v>0.6677476592576688</v>
       </c>
       <c r="S2">
-        <v>0.6610853794578069</v>
+        <v>0.6677476592576688</v>
       </c>
       <c r="T2">
-        <v>0.909502052664077</v>
+        <v>0.9698097872789249</v>
       </c>
       <c r="U2">
-        <v>0.909502052664077</v>
+        <v>0.9698097872789249</v>
       </c>
       <c r="V2">
-        <v>0.9432765106077876</v>
+        <v>0.980623479225601</v>
       </c>
       <c r="W2">
-        <v>0.9432765106077876</v>
+        <v>0.980623479225601</v>
       </c>
       <c r="X2">
-        <v>0.9432765106077876</v>
+        <v>0.980623479225601</v>
       </c>
       <c r="Y2">
-        <v>0.9432765106077876</v>
+        <v>0.980623479225601</v>
       </c>
       <c r="Z2">
-        <v>0.9432765106077876</v>
+        <v>0.980623479225601</v>
       </c>
       <c r="AA2">
-        <v>0.9432765106077876</v>
+        <v>0.980623479225601</v>
       </c>
       <c r="AB2">
-        <v>0.9432765106077876</v>
+        <v>0.980623479225601</v>
       </c>
       <c r="AC2">
-        <v>0.9833615416596946</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD2">
-        <v>0.9833615416596946</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -2106,109 +2106,109 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09427689057014813</v>
+        <v>0.0936875367819504</v>
       </c>
       <c r="E3">
-        <v>0.09427689057014813</v>
+        <v>0.0936875367819504</v>
       </c>
       <c r="F3">
-        <v>0.1834722697613971</v>
+        <v>0.1805196152557918</v>
       </c>
       <c r="G3">
-        <v>0.3063039877238635</v>
+        <v>0.3127304208227261</v>
       </c>
       <c r="H3">
-        <v>0.3078745581578266</v>
+        <v>0.3127304208227261</v>
       </c>
       <c r="I3">
-        <v>0.3078745581578266</v>
+        <v>0.3127304208227261</v>
       </c>
       <c r="J3">
-        <v>0.3078745581578266</v>
+        <v>0.3127304208227261</v>
       </c>
       <c r="K3">
-        <v>0.3078745581578266</v>
+        <v>0.3127304208227261</v>
       </c>
       <c r="L3">
-        <v>0.3696563270635143</v>
+        <v>0.3625788445579795</v>
       </c>
       <c r="M3">
-        <v>0.3696563270635143</v>
+        <v>0.3625788445579795</v>
       </c>
       <c r="N3">
-        <v>0.5543190240919809</v>
+        <v>0.5782057182058931</v>
       </c>
       <c r="O3">
-        <v>0.5543190240919809</v>
+        <v>0.5782057182058931</v>
       </c>
       <c r="P3">
-        <v>0.5543190240919809</v>
+        <v>0.5782057182058931</v>
       </c>
       <c r="Q3">
-        <v>0.6502765362404215</v>
+        <v>0.6741605786840049</v>
       </c>
       <c r="R3">
-        <v>0.6502765362404215</v>
+        <v>0.6741605786840049</v>
       </c>
       <c r="S3">
-        <v>0.849814723438864</v>
+        <v>0.909855950672081</v>
       </c>
       <c r="T3">
-        <v>0.8543518559141859</v>
+        <v>0.909855950672081</v>
       </c>
       <c r="U3">
-        <v>0.896178396758647</v>
+        <v>0.9327828103682154</v>
       </c>
       <c r="V3">
-        <v>0.896178396758647</v>
+        <v>0.9327828103682154</v>
       </c>
       <c r="W3">
-        <v>0.896178396758647</v>
+        <v>0.9327828103682154</v>
       </c>
       <c r="X3">
-        <v>0.9005115485610399</v>
+        <v>0.9327828103682154</v>
       </c>
       <c r="Y3">
-        <v>0.9005115485610399</v>
+        <v>0.9327828103682154</v>
       </c>
       <c r="Z3">
-        <v>0.9005115485610399</v>
+        <v>0.9327828103682154</v>
       </c>
       <c r="AA3">
-        <v>0.9005115485610399</v>
+        <v>0.9327828103682154</v>
       </c>
       <c r="AB3">
-        <v>0.9645871303262626</v>
+        <v>0.9857258131081416</v>
       </c>
       <c r="AC3">
-        <v>0.9645871303262626</v>
+        <v>0.9857258131081416</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -2225,76 +2225,76 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3587946501546363</v>
+        <v>0.2558102634435609</v>
       </c>
       <c r="F4">
-        <v>0.3587946501546363</v>
+        <v>0.2560188540069546</v>
       </c>
       <c r="G4">
-        <v>0.4803738209495934</v>
+        <v>0.3697151058383721</v>
       </c>
       <c r="H4">
-        <v>0.5252535581825556</v>
+        <v>0.4374613032243675</v>
       </c>
       <c r="I4">
-        <v>0.5252535581825556</v>
+        <v>0.4374613032243675</v>
       </c>
       <c r="J4">
-        <v>0.5252535581825556</v>
+        <v>0.4374613032243675</v>
       </c>
       <c r="K4">
-        <v>0.5252535581825556</v>
+        <v>0.4374613032243675</v>
       </c>
       <c r="L4">
-        <v>0.5252535581825556</v>
+        <v>0.4374613032243675</v>
       </c>
       <c r="M4">
-        <v>0.5777922320430184</v>
+        <v>0.5097959120064294</v>
       </c>
       <c r="N4">
-        <v>0.6895564311721165</v>
+        <v>0.617612088047431</v>
       </c>
       <c r="O4">
-        <v>0.7177951689288289</v>
+        <v>0.6753887876620789</v>
       </c>
       <c r="P4">
-        <v>0.7177951689288289</v>
+        <v>0.6753887876620789</v>
       </c>
       <c r="Q4">
-        <v>0.7177951689288289</v>
+        <v>0.6909829656800595</v>
       </c>
       <c r="R4">
-        <v>0.7630188365781281</v>
+        <v>0.7589352091947182</v>
       </c>
       <c r="S4">
-        <v>0.7630188365781281</v>
+        <v>0.7997942931617601</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9826270118228945</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -2341,106 +2341,106 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1585618014643234</v>
+        <v>0.182247344706856</v>
       </c>
       <c r="F5">
-        <v>0.1585618014643234</v>
+        <v>0.182247344706856</v>
       </c>
       <c r="G5">
-        <v>0.2114298012148833</v>
+        <v>0.2196243247264794</v>
       </c>
       <c r="H5">
-        <v>0.2902986097818452</v>
+        <v>0.2926395975723574</v>
       </c>
       <c r="I5">
-        <v>0.2902986097818452</v>
+        <v>0.2926395975723574</v>
       </c>
       <c r="J5">
-        <v>0.2902986097818452</v>
+        <v>0.2926395975723574</v>
       </c>
       <c r="K5">
-        <v>0.2902986097818452</v>
+        <v>0.2926395975723574</v>
       </c>
       <c r="L5">
-        <v>0.2934629509632173</v>
+        <v>0.2926395975723574</v>
       </c>
       <c r="M5">
-        <v>0.4022947664959816</v>
+        <v>0.4067239934498522</v>
       </c>
       <c r="N5">
-        <v>0.4210412928454502</v>
+        <v>0.4067239934498522</v>
       </c>
       <c r="O5">
-        <v>0.5682124082863065</v>
+        <v>0.5733585698438949</v>
       </c>
       <c r="P5">
-        <v>0.5682124082863065</v>
+        <v>0.5733585698438949</v>
       </c>
       <c r="Q5">
-        <v>0.5688823469181693</v>
+        <v>0.5733585698438949</v>
       </c>
       <c r="R5">
-        <v>0.6765924530885516</v>
+        <v>0.6859054825221247</v>
       </c>
       <c r="S5">
-        <v>0.6765924530885516</v>
+        <v>0.6859054825221247</v>
       </c>
       <c r="T5">
-        <v>0.8818828776629009</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="U5">
-        <v>0.8818828776629009</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="V5">
-        <v>0.8948430445985167</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="W5">
-        <v>0.8948430445985167</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="X5">
-        <v>0.8948430445985167</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="Y5">
-        <v>0.9047954394728895</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="Z5">
-        <v>0.9061288354916291</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="AA5">
-        <v>0.9061288354916291</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="AB5">
-        <v>0.9061288354916291</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="AC5">
-        <v>0.9811913065282046</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9811913065282046</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -2457,106 +2457,106 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01697052376227159</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06417164028437845</v>
+        <v>0.03173791810528614</v>
       </c>
       <c r="G6">
-        <v>0.1247508854374788</v>
+        <v>0.08616075967061866</v>
       </c>
       <c r="H6">
-        <v>0.2478537800378469</v>
+        <v>0.2466032278426293</v>
       </c>
       <c r="I6">
-        <v>0.2851479460373182</v>
+        <v>0.2615422033956817</v>
       </c>
       <c r="J6">
-        <v>0.3025723339061825</v>
+        <v>0.2615422033956817</v>
       </c>
       <c r="K6">
-        <v>0.3025723339061825</v>
+        <v>0.2615422033956817</v>
       </c>
       <c r="L6">
-        <v>0.3025723339061825</v>
+        <v>0.2615422033956817</v>
       </c>
       <c r="M6">
-        <v>0.3107767637132276</v>
+        <v>0.2615422033956817</v>
       </c>
       <c r="N6">
-        <v>0.3107767637132276</v>
+        <v>0.2615422033956817</v>
       </c>
       <c r="O6">
-        <v>0.5174236981645723</v>
+        <v>0.5636479939827445</v>
       </c>
       <c r="P6">
-        <v>0.5174236981645723</v>
+        <v>0.5636479939827445</v>
       </c>
       <c r="Q6">
-        <v>0.5177918254759573</v>
+        <v>0.5636479939827445</v>
       </c>
       <c r="R6">
-        <v>0.6384875822262169</v>
+        <v>0.7200087449435015</v>
       </c>
       <c r="S6">
-        <v>0.6517775923493403</v>
+        <v>0.7200087449435015</v>
       </c>
       <c r="T6">
-        <v>0.7787398457419835</v>
+        <v>0.8869954212945836</v>
       </c>
       <c r="U6">
-        <v>0.8154309341466701</v>
+        <v>0.9009117748161461</v>
       </c>
       <c r="V6">
-        <v>0.8479472468273195</v>
+        <v>0.9077490763735018</v>
       </c>
       <c r="W6">
-        <v>0.8479472468273195</v>
+        <v>0.9077490763735018</v>
       </c>
       <c r="X6">
-        <v>0.8479472468273195</v>
+        <v>0.9077490763735018</v>
       </c>
       <c r="Y6">
-        <v>0.8479472468273195</v>
+        <v>0.9077490763735018</v>
       </c>
       <c r="Z6">
-        <v>0.8645880046491443</v>
+        <v>0.9077490763735018</v>
       </c>
       <c r="AA6">
-        <v>0.8645880046491443</v>
+        <v>0.9077490763735018</v>
       </c>
       <c r="AB6">
-        <v>0.8645880046491443</v>
+        <v>0.9077490763735018</v>
       </c>
       <c r="AC6">
-        <v>0.9443731214776804</v>
+        <v>0.9947387844235361</v>
       </c>
       <c r="AD6">
-        <v>0.9684131628374413</v>
+        <v>0.9947387844235361</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -2573,91 +2573,91 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1623978217069856</v>
+        <v>0.1879982303985969</v>
       </c>
       <c r="F7">
-        <v>0.1623978217069856</v>
+        <v>0.1879982303985969</v>
       </c>
       <c r="G7">
-        <v>0.2610685176805582</v>
+        <v>0.2870262866132555</v>
       </c>
       <c r="H7">
-        <v>0.3368856115478456</v>
+        <v>0.3541481657215999</v>
       </c>
       <c r="I7">
-        <v>0.3388688961011335</v>
+        <v>0.3541481657215999</v>
       </c>
       <c r="J7">
-        <v>0.3388688961011335</v>
+        <v>0.3541481657215999</v>
       </c>
       <c r="K7">
-        <v>0.3388688961011335</v>
+        <v>0.3541481657215999</v>
       </c>
       <c r="L7">
-        <v>0.3388688961011335</v>
+        <v>0.3541481657215999</v>
       </c>
       <c r="M7">
-        <v>0.417579006358799</v>
+        <v>0.4253090183315216</v>
       </c>
       <c r="N7">
-        <v>0.4357321349851879</v>
+        <v>0.4253090183315216</v>
       </c>
       <c r="O7">
-        <v>0.5698826022795513</v>
+        <v>0.5738707919088949</v>
       </c>
       <c r="P7">
-        <v>0.5698826022795513</v>
+        <v>0.5738707919088949</v>
       </c>
       <c r="Q7">
-        <v>0.5806877423822953</v>
+        <v>0.5738707919088949</v>
       </c>
       <c r="R7">
-        <v>0.7321053593907134</v>
+        <v>0.7465394320684229</v>
       </c>
       <c r="S7">
-        <v>0.7343582263498434</v>
+        <v>0.7465394320684229</v>
       </c>
       <c r="T7">
-        <v>0.9053536154673925</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="U7">
-        <v>0.9053536154673925</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="V7">
-        <v>0.9153736586485013</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="W7">
-        <v>0.9153736586485013</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="X7">
-        <v>0.9153736586485013</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="Y7">
-        <v>0.9153736586485013</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="Z7">
-        <v>0.9153736586485013</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="AA7">
-        <v>0.9157461934881023</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="AB7">
-        <v>0.9157461934881023</v>
+        <v>0.94654082534739</v>
       </c>
       <c r="AC7">
-        <v>0.981777031537693</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.981777031537693</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9936306614746635</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9936306614746635</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9951406562430549</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -2686,109 +2686,109 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1645843699394739</v>
+        <v>0.2351999673184269</v>
       </c>
       <c r="E8">
-        <v>0.2057185035545221</v>
+        <v>0.2550734603637426</v>
       </c>
       <c r="F8">
-        <v>0.3107826413633744</v>
+        <v>0.3864560344215937</v>
       </c>
       <c r="G8">
-        <v>0.3751866236640248</v>
+        <v>0.4469176593613813</v>
       </c>
       <c r="H8">
-        <v>0.3751866236640248</v>
+        <v>0.4469176593613813</v>
       </c>
       <c r="I8">
-        <v>0.3751866236640248</v>
+        <v>0.4469176593613813</v>
       </c>
       <c r="J8">
-        <v>0.3751866236640248</v>
+        <v>0.4469176593613813</v>
       </c>
       <c r="K8">
-        <v>0.3760265055818386</v>
+        <v>0.4469176593613813</v>
       </c>
       <c r="L8">
-        <v>0.393175001774386</v>
+        <v>0.4469176593613813</v>
       </c>
       <c r="M8">
-        <v>0.5282714899917386</v>
+        <v>0.6306837712733231</v>
       </c>
       <c r="N8">
-        <v>0.5913186018444584</v>
+        <v>0.6887786925250721</v>
       </c>
       <c r="O8">
-        <v>0.5913186018444584</v>
+        <v>0.6887786925250721</v>
       </c>
       <c r="P8">
-        <v>0.6750792625661541</v>
+        <v>0.7830029528565704</v>
       </c>
       <c r="Q8">
-        <v>0.7311908834826381</v>
+        <v>0.8290007339560058</v>
       </c>
       <c r="R8">
-        <v>0.7862339317531174</v>
+        <v>0.8731346710708563</v>
       </c>
       <c r="S8">
-        <v>0.8474356322402253</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="T8">
-        <v>0.8502403653607418</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="U8">
-        <v>0.8514500039874938</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="V8">
-        <v>0.8514500039874938</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="W8">
-        <v>0.8539863464471319</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="X8">
-        <v>0.8721585039915852</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="Y8">
-        <v>0.8747463159095433</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="Z8">
-        <v>0.8758806116299229</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="AA8">
-        <v>0.9377075005769151</v>
+        <v>0.9839773207401208</v>
       </c>
       <c r="AB8">
-        <v>0.9766338988289138</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.9934444408011665</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.9954776370274097</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.9954776370274097</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.9982211683889477</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.9982211683889477</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
-        <v>0.9982211683889477</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2805,106 +2805,106 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08878030572103368</v>
+        <v>0.09693135590538587</v>
       </c>
       <c r="F9">
-        <v>0.1357280682507003</v>
+        <v>0.1257809957393647</v>
       </c>
       <c r="G9">
-        <v>0.2146144106827089</v>
+        <v>0.2066101032975034</v>
       </c>
       <c r="H9">
-        <v>0.3437131904783917</v>
+        <v>0.3691590548586351</v>
       </c>
       <c r="I9">
-        <v>0.3776052642162276</v>
+        <v>0.3767607946217069</v>
       </c>
       <c r="J9">
-        <v>0.3776052642162276</v>
+        <v>0.3767607946217069</v>
       </c>
       <c r="K9">
-        <v>0.3792491710400708</v>
+        <v>0.3767607946217069</v>
       </c>
       <c r="L9">
-        <v>0.3792491710400708</v>
+        <v>0.3767607946217069</v>
       </c>
       <c r="M9">
-        <v>0.3808608302131974</v>
+        <v>0.3767607946217069</v>
       </c>
       <c r="N9">
-        <v>0.3808608302131974</v>
+        <v>0.3767607946217069</v>
       </c>
       <c r="O9">
-        <v>0.5546988745862633</v>
+        <v>0.6121220993373451</v>
       </c>
       <c r="P9">
-        <v>0.5603290625433347</v>
+        <v>0.6121220993373451</v>
       </c>
       <c r="Q9">
-        <v>0.561609257325879</v>
+        <v>0.6121220993373451</v>
       </c>
       <c r="R9">
-        <v>0.6492776582856084</v>
+        <v>0.7072438501247427</v>
       </c>
       <c r="S9">
-        <v>0.6492776582856084</v>
+        <v>0.7072438501247427</v>
       </c>
       <c r="T9">
-        <v>0.7449999169280238</v>
+        <v>0.8154731102864521</v>
       </c>
       <c r="U9">
-        <v>0.7794806101746793</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="V9">
-        <v>0.7794806101746793</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="W9">
-        <v>0.7794806101746793</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="X9">
-        <v>0.7794806101746793</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="Y9">
-        <v>0.8068818515390175</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="Z9">
-        <v>0.8172250252094366</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="AA9">
-        <v>0.8273611908325574</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="AB9">
-        <v>0.828024308979054</v>
+        <v>0.824032817775517</v>
       </c>
       <c r="AC9">
-        <v>0.9438619439592845</v>
+        <v>0.964999493260884</v>
       </c>
       <c r="AD9">
-        <v>0.9438619439592845</v>
+        <v>0.964999493260884</v>
       </c>
       <c r="AE9">
-        <v>0.9945890825141328</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9945890825141328</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9945890825141328</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2921,94 +2921,94 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01432742142920779</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1726498195273516</v>
+        <v>0.2335925361755744</v>
       </c>
       <c r="G10">
-        <v>0.2153943742589023</v>
+        <v>0.2570929809765056</v>
       </c>
       <c r="H10">
-        <v>0.3146767676003062</v>
+        <v>0.3833653101573057</v>
       </c>
       <c r="I10">
-        <v>0.3610241037377092</v>
+        <v>0.4134147254033796</v>
       </c>
       <c r="J10">
-        <v>0.3610241037377092</v>
+        <v>0.4134147254033796</v>
       </c>
       <c r="K10">
-        <v>0.3610241037377092</v>
+        <v>0.4134147254033796</v>
       </c>
       <c r="L10">
-        <v>0.3610241037377092</v>
+        <v>0.4134147254033796</v>
       </c>
       <c r="M10">
-        <v>0.3616502221343699</v>
+        <v>0.4134147254033796</v>
       </c>
       <c r="N10">
-        <v>0.3704977086001419</v>
+        <v>0.4134147254033796</v>
       </c>
       <c r="O10">
-        <v>0.5079797391213869</v>
+        <v>0.6091245992821724</v>
       </c>
       <c r="P10">
-        <v>0.5597146188489869</v>
+        <v>0.6489672436391792</v>
       </c>
       <c r="Q10">
-        <v>0.5597146188489869</v>
+        <v>0.6489672436391792</v>
       </c>
       <c r="R10">
-        <v>0.6240773727537647</v>
+        <v>0.7117642572612729</v>
       </c>
       <c r="S10">
-        <v>0.6535872187366456</v>
+        <v>0.7117642572612729</v>
       </c>
       <c r="T10">
-        <v>0.7327335377526981</v>
+        <v>0.8014341560465676</v>
       </c>
       <c r="U10">
-        <v>0.815244285675616</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="V10">
-        <v>0.815244285675616</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="W10">
-        <v>0.815244285675616</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="X10">
-        <v>0.815244285675616</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="Y10">
-        <v>0.8260854370744997</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="Z10">
-        <v>0.8492922472961985</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="AA10">
-        <v>0.8527166687291471</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="AB10">
-        <v>0.8527166687291471</v>
+        <v>0.8972197590597281</v>
       </c>
       <c r="AC10">
-        <v>0.9369889618735743</v>
+        <v>0.9962074180107557</v>
       </c>
       <c r="AD10">
-        <v>0.9688916411864182</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9916062835612088</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9931864047908981</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9931864047908981</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9993074022438481</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -3043,97 +3043,97 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1118381949897782</v>
+        <v>0.1381248558443513</v>
       </c>
       <c r="H11">
-        <v>0.1194643543832431</v>
+        <v>0.1381248558443513</v>
       </c>
       <c r="I11">
-        <v>0.1879052677645516</v>
+        <v>0.2030046545738031</v>
       </c>
       <c r="J11">
-        <v>0.2852036127478301</v>
+        <v>0.3165894446652733</v>
       </c>
       <c r="K11">
-        <v>0.3078346525819936</v>
+        <v>0.3165894446652733</v>
       </c>
       <c r="L11">
-        <v>0.3081890306000715</v>
+        <v>0.3165894446652733</v>
       </c>
       <c r="M11">
-        <v>0.3108246210113541</v>
+        <v>0.3165894446652733</v>
       </c>
       <c r="N11">
-        <v>0.3155379030402036</v>
+        <v>0.3165894446652733</v>
       </c>
       <c r="O11">
-        <v>0.317388948012583</v>
+        <v>0.3165894446652733</v>
       </c>
       <c r="P11">
-        <v>0.3411090864053941</v>
+        <v>0.3165894446652733</v>
       </c>
       <c r="Q11">
-        <v>0.4956095048069235</v>
+        <v>0.5267187412170919</v>
       </c>
       <c r="R11">
-        <v>0.4957800140514708</v>
+        <v>0.5267187412170919</v>
       </c>
       <c r="S11">
-        <v>0.5331318882711645</v>
+        <v>0.5391270863291491</v>
       </c>
       <c r="T11">
-        <v>0.6619460755107065</v>
+        <v>0.7059036796978474</v>
       </c>
       <c r="U11">
-        <v>0.6626106826584254</v>
+        <v>0.7059036796978474</v>
       </c>
       <c r="V11">
-        <v>0.724308032835589</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="W11">
-        <v>0.7268073171843785</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="X11">
-        <v>0.7268876919973426</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="Y11">
-        <v>0.727645362842493</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="Z11">
-        <v>0.7278662122990929</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="AA11">
-        <v>0.7541887052580607</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="AB11">
-        <v>0.7636286299337498</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="AC11">
-        <v>0.7778842869759365</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="AD11">
-        <v>0.7909592557219907</v>
+        <v>0.7594018283852115</v>
       </c>
       <c r="AE11">
-        <v>0.9377841410862205</v>
+        <v>0.9565765149967943</v>
       </c>
       <c r="AF11">
-        <v>0.937941828066463</v>
+        <v>0.9565765149967943</v>
       </c>
       <c r="AG11">
-        <v>0.9936699970560663</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9938129506292337</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9942832877719257</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9984976477685682</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9993994378725128</v>
+        <v>1</v>
       </c>
       <c r="AL11">
         <v>1</v>
@@ -3198,34 +3198,34 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5283759151254033</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5325671162498899</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>32</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -3239,34 +3239,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.5782057182058931</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5543190240919809</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>32</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -3280,34 +3280,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5097959120064294</v>
       </c>
       <c r="F4">
-        <v>0.5252535581825556</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>32</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -3321,34 +3321,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5733585698438949</v>
+      </c>
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5682124082863065</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>32</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -3362,34 +3362,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.5636479939827445</v>
+      </c>
+      <c r="F6">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5174236981645723</v>
-      </c>
       <c r="G6">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>32</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -3403,34 +3403,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5738707919088949</v>
+      </c>
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5698826022795513</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>32</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -3444,34 +3444,34 @@
         <v>44</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.6306837712733231</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5282714899917386</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>32</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -3485,34 +3485,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.6121220993373451</v>
+      </c>
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5546988745862633</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>32</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -3526,34 +3526,34 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.6091245992821724</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5079797391213869</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>32</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -3567,34 +3567,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5267187412170919</v>
       </c>
       <c r="F11">
-        <v>0.5331318882711645</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>32</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -3662,34 +3662,34 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.9698097872789249</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.909502052664077</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>32</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -3703,34 +3703,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.909855950672081</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.849814723438864</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>32</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -3744,34 +3744,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7589352091947182</v>
       </c>
       <c r="F4">
-        <v>0.7177951689288289</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>32</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -3785,34 +3785,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.9322019252982778</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8818828776629009</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>32</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -3826,34 +3826,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7200087449435015</v>
       </c>
       <c r="F6">
-        <v>0.7787398457419835</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>32</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -3867,34 +3867,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.7465394320684229</v>
+      </c>
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7321053593907134</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>32</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -3908,34 +3908,34 @@
         <v>44</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7830029528565704</v>
       </c>
       <c r="F8">
-        <v>0.7311908834826381</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>32</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -3949,34 +3949,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7072438501247427</v>
       </c>
       <c r="F9">
-        <v>0.7449999169280238</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>32</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -3990,34 +3990,34 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7117642572612729</v>
       </c>
       <c r="F10">
-        <v>0.7327335377526981</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>32</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -4031,34 +4031,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7059036796978474</v>
       </c>
       <c r="F11">
-        <v>0.724308032835589</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>32</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -4126,34 +4126,34 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.9698097872789249</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.909502052664077</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>32</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -4167,34 +4167,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.909855950672081</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.849814723438864</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>32</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -4208,34 +4208,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.9826270118228945</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>32</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -4249,34 +4249,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.9322019252982778</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8818828776629009</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>32</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -4290,34 +4290,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8869954212945836</v>
       </c>
       <c r="F6">
-        <v>0.8154309341466701</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>32</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -4331,34 +4331,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.94654082534739</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9053536154673925</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>32</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -4372,34 +4372,34 @@
         <v>44</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8290007339560058</v>
       </c>
       <c r="F8">
-        <v>0.8474356322402253</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>32</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -4413,34 +4413,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8154731102864521</v>
       </c>
       <c r="F9">
-        <v>0.8068818515390175</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>32</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -4454,34 +4454,34 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8014341560465676</v>
       </c>
       <c r="F10">
-        <v>0.815244285675616</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>32</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -4495,34 +4495,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.9565765149967943</v>
+      </c>
+      <c r="F11">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9377841410862205</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>32</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -4590,34 +4590,34 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.9698097872789249</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.909502052664077</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>32</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -4631,34 +4631,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.909855950672081</v>
       </c>
       <c r="F3">
-        <v>0.9005115485610399</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>32</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -4672,34 +4672,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.9826270118228945</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>32</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -4713,34 +4713,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9322019252982778</v>
       </c>
       <c r="F5">
-        <v>0.9047954394728895</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>32</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -4754,34 +4754,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9009117748161461</v>
       </c>
       <c r="F6">
-        <v>0.9443731214776804</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>32</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -4795,34 +4795,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.94654082534739</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9053536154673925</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>32</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -4836,34 +4836,34 @@
         <v>44</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9280107574724518</v>
       </c>
       <c r="F8">
-        <v>0.9377075005769151</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>32</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -4877,34 +4877,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.964999493260884</v>
+      </c>
+      <c r="F9">
         <v>28</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9438619439592845</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>26</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>32</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -4918,34 +4918,34 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.9962074180107557</v>
+      </c>
+      <c r="F10">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9369889618735743</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>25</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>32</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -4959,34 +4959,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9565765149967943</v>
+      </c>
+      <c r="F11">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9377841410862205</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>32</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
